--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="145">
   <si>
     <t>Job Title</t>
   </si>
@@ -495,9 +495,6 @@
     <t>Nguyen</t>
   </si>
   <si>
-    <t>anh.nguyen@c-mg.com</t>
-  </si>
-  <si>
     <t>Web development service</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>Ta</t>
   </si>
   <si>
-    <t>lan.ta@c-mg.com</t>
-  </si>
-  <si>
     <t>lan.ta</t>
   </si>
   <si>
@@ -580,13 +574,34 @@
   </si>
   <si>
     <t>Lead Super User</t>
+  </si>
+  <si>
+    <t>hailu</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>hai.lu@c-mg.com</t>
+  </si>
+  <si>
+    <t>hai.lu</t>
+  </si>
+  <si>
+    <t>Anh.Nguyen@uk.bp.com</t>
+  </si>
+  <si>
+    <t>Lan.Ta@uk.bp.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -672,6 +687,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Univers 45 Light"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1056,7 +1077,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1066,8 +1087,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,11 +1254,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="%_HMD_ROLE_MAPPING_UserTemplate_4_3_2 BRS" xfId="1"/>
     <cellStyle name="%_ROLE_MAPPING_4.3.4 FINANCE Consolidated" xfId="2"/>
     <cellStyle name="%_ROLE_MAPPING_UserTemplate_4.3.1 PSCM CWood-to be reviewed by Bob" xfId="3"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
@@ -1936,8 +1960,8 @@
   </sheetPr>
   <dimension ref="A1:CV244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -2581,187 +2605,187 @@
       <c r="D5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="P5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T5" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="U5" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
       <c r="AU5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AV5" s="4"/>
       <c r="AW5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
       <c r="BG5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BL5" s="4"/>
       <c r="BM5" s="4"/>
       <c r="BN5" s="4"/>
       <c r="BO5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BQ5" s="4"/>
       <c r="BR5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS5" s="4"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BV5" s="4"/>
       <c r="BW5" s="4"/>
       <c r="BX5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
       <c r="CA5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CB5" s="4"/>
       <c r="CC5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CD5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CE5" s="4"/>
       <c r="CF5" s="4"/>
       <c r="CG5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CH5" s="4"/>
       <c r="CI5" s="4"/>
       <c r="CJ5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CK5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CL5" s="4"/>
       <c r="CM5" s="4"/>
       <c r="CN5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CO5" s="4"/>
       <c r="CP5" s="4"/>
       <c r="CQ5" s="4"/>
       <c r="CR5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CS5" s="4"/>
       <c r="CT5" s="4"/>
@@ -2770,319 +2794,481 @@
     </row>
     <row r="6" spans="1:100">
       <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="R6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="U6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BH6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CC6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CE6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CJ6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CL6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CN6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CQ6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CS6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CU6" s="4"/>
       <c r="CV6" s="4"/>
     </row>
     <row r="7" spans="1:100">
       <c r="A7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="T7" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="U7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BQ7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CC7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CF7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CM7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CO7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CP7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CS7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CT7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="CU7" s="4"/>
       <c r="CV7" s="4"/>
     </row>
     <row r="8" spans="1:100">
+      <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CB8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CC8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CS8" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="CU8" s="4"/>
       <c r="CV8" s="4"/>
     </row>
@@ -4044,10 +4230,15 @@
     <mergeCell ref="BN2:BW2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId4"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4061,11 +4252,119 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </dd96fca6772e4867a9208609779574a7>
+    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </b249b6a8f62b4bc7904c2f5bc1687ac3>
+    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
+    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </n3dcd34f14d14173a15c5e7b17b9407e>
+    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
+        </TermInfo>
+      </Terms>
+    </cc14bf1737424455b1020a98eb93ddb0>
+    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2851</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Content_x0020_Owner>
+    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </o3583a83cab34062a8e9cec91a8b96c2>
+    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </pbcd3bbf9c184baca9fdd3a5eb53df48>
+    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </b5489ffb3a31468a843bf304fbb03bd4>
+    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
+        </TermInfo>
+      </Terms>
+    </a2560a1fc8734eaea64c5ed5193c1f4f>
+    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b28cb21585424c81a811c4e1bc4c5a60>
+    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Final</BB_x0020_Status>
+    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l1d8d357f45743ed94acc3dfcbbb143b>
+    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
+        </TermInfo>
+      </Terms>
+    </p7f54e0c5c724ee0984058454c0cb3e3>
+    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
+        </TermInfo>
+      </Terms>
+    </he3cc7de101a4b15bc22e4e03cb53b52>
+    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f39c3348ff15467a8f593fbefec55be7>
+    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
+      <Value>253</Value>
+      <Value>222</Value>
+      <Value>100</Value>
+      <Value>275</Value>
+    </TaxCatchAll>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="General" ma:contentTypeID="0x0101090002A9BFB70928524F98202F9A34B833F70100C2EA550E6B4A74439F5945D0DD9F3754" ma:contentTypeVersion="57" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="f439cd5624696faba63ed122ddfb48f2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a035045-18fd-432c-a5de-6497d89eeef1" xmlns:ns3="3a827281-27b5-422c-a54b-bb9b794c9526" xmlns:ns4="296ada00-b809-4a3e-b87e-6e6c5efe7723" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d276b1db43b94d1b826cec67521e7c" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4429,117 +4728,9 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <Delivery_x0020_Stream xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <dd96fca6772e4867a9208609779574a7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </dd96fca6772e4867a9208609779574a7>
-    <b249b6a8f62b4bc7904c2f5bc1687ac3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </b249b6a8f62b4bc7904c2f5bc1687ac3>
-    <Document_x0020_Source_x0020_Link xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <BB_x0020_Description xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
-    <n3dcd34f14d14173a15c5e7b17b9407e xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </n3dcd34f14d14173a15c5e7b17b9407e>
-    <cc14bf1737424455b1020a98eb93ddb0 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Role Mapping</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">2eefe038-d068-4705-bf02-ae15aa70e910</TermId>
-        </TermInfo>
-      </Terms>
-    </cc14bf1737424455b1020a98eb93ddb0>
-    <Content_x0020_Owner xmlns="3a827281-27b5-422c-a54b-bb9b794c9526">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2851</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Content_x0020_Owner>
-    <o3583a83cab34062a8e9cec91a8b96c2 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </o3583a83cab34062a8e9cec91a8b96c2>
-    <pbcd3bbf9c184baca9fdd3a5eb53df48 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </pbcd3bbf9c184baca9fdd3a5eb53df48>
-    <b5489ffb3a31468a843bf304fbb03bd4 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </b5489ffb3a31468a843bf304fbb03bd4>
-    <a2560a1fc8734eaea64c5ed5193c1f4f xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Change Management</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">9c773a89-c43d-4600-89a1-fa345ef379ef</TermId>
-        </TermInfo>
-      </Terms>
-    </a2560a1fc8734eaea64c5ed5193c1f4f>
-    <b28cb21585424c81a811c4e1bc4c5a60 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b28cb21585424c81a811c4e1bc4c5a60>
-    <BB_x0020_Status xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">Final</BB_x0020_Status>
-    <l1d8d357f45743ed94acc3dfcbbb143b xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l1d8d357f45743ed94acc3dfcbbb143b>
-    <p7f54e0c5c724ee0984058454c0cb3e3 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">GOO</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">bd0629b0-242c-4af1-aa70-fd1c6bca74e7</TermId>
-        </TermInfo>
-      </Terms>
-    </p7f54e0c5c724ee0984058454c0cb3e3>
-    <he3cc7de101a4b15bc22e4e03cb53b52 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">All</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">b062b94e-429c-48eb-860c-290ea01ee747</TermId>
-        </TermInfo>
-      </Terms>
-    </he3cc7de101a4b15bc22e4e03cb53b52>
-    <f39c3348ff15467a8f593fbefec55be7 xmlns="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f39c3348ff15467a8f593fbefec55be7>
-    <TaxCatchAll xmlns="296ada00-b809-4a3e-b87e-6e6c5efe7723">
-      <Value>253</Value>
-      <Value>222</Value>
-      <Value>100</Value>
-      <Value>275</Value>
-    </TaxCatchAll>
-  </documentManagement>
-</p:properties>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4551,14 +4742,41 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4916512A-AE00-48A6-9D10-27E7167AC265}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EF8F863-970A-43A6-B22E-CCAF24337F16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4579,37 +4797,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4916512A-AE00-48A6-9D10-27E7167AC265}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>